--- a/氣象性能評估工具V2/data/obs/backup/2016-06-10_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-10_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-10 00:00:00</t>
+    <t>2016-06-10-00</t>
   </si>
   <si>
     <t>20.7</t>
@@ -145,7 +145,7 @@
     <t>25.1</t>
   </si>
   <si>
-    <t>2016-06-10 01:00:00</t>
+    <t>2016-06-10-01</t>
   </si>
   <si>
     <t>21.7</t>
@@ -184,7 +184,7 @@
     <t>25.7</t>
   </si>
   <si>
-    <t>2016-06-10 02:00:00</t>
+    <t>2016-06-10-02</t>
   </si>
   <si>
     <t>21.2</t>
@@ -205,7 +205,7 @@
     <t>25.8</t>
   </si>
   <si>
-    <t>2016-06-10 03:00:00</t>
+    <t>2016-06-10-03</t>
   </si>
   <si>
     <t>26.0</t>
@@ -220,7 +220,7 @@
     <t>25.5</t>
   </si>
   <si>
-    <t>2016-06-10 04:00:00</t>
+    <t>2016-06-10-04</t>
   </si>
   <si>
     <t>20.8</t>
@@ -238,7 +238,7 @@
     <t>25.4</t>
   </si>
   <si>
-    <t>2016-06-10 05:00:00</t>
+    <t>2016-06-10-05</t>
   </si>
   <si>
     <t>21.4</t>
@@ -253,7 +253,7 @@
     <t>6.6</t>
   </si>
   <si>
-    <t>2016-06-10 06:00:00</t>
+    <t>2016-06-10-06</t>
   </si>
   <si>
     <t>22.3</t>
@@ -280,7 +280,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>2016-06-10 07:00:00</t>
+    <t>2016-06-10-07</t>
   </si>
   <si>
     <t>22.4</t>
@@ -313,7 +313,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-10 08:00:00</t>
+    <t>2016-06-10-08</t>
   </si>
   <si>
     <t>23.0</t>
@@ -346,7 +346,7 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>2016-06-10 09:00:00</t>
+    <t>2016-06-10-09</t>
   </si>
   <si>
     <t>22.7</t>
@@ -376,7 +376,7 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>2016-06-10 10:00:00</t>
+    <t>2016-06-10-10</t>
   </si>
   <si>
     <t>30.9</t>
@@ -400,7 +400,7 @@
     <t>9.8</t>
   </si>
   <si>
-    <t>2016-06-10 11:00:00</t>
+    <t>2016-06-10-11</t>
   </si>
   <si>
     <t>23.6</t>
@@ -427,7 +427,7 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>2016-06-10 12:00:00</t>
+    <t>2016-06-10-12</t>
   </si>
   <si>
     <t>23.5</t>
@@ -442,7 +442,7 @@
     <t>8.2</t>
   </si>
   <si>
-    <t>2016-06-10 13:00:00</t>
+    <t>2016-06-10-13</t>
   </si>
   <si>
     <t>23.4</t>
@@ -466,7 +466,7 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-10 14:00:00</t>
+    <t>2016-06-10-14</t>
   </si>
   <si>
     <t>14.7</t>
@@ -475,7 +475,7 @@
     <t>9.3</t>
   </si>
   <si>
-    <t>2016-06-10 15:00:00</t>
+    <t>2016-06-10-15</t>
   </si>
   <si>
     <t>23.2</t>
@@ -487,7 +487,7 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>2016-06-10 16:00:00</t>
+    <t>2016-06-10-16</t>
   </si>
   <si>
     <t>23.8</t>
@@ -496,7 +496,7 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>2016-06-10 17:00:00</t>
+    <t>2016-06-10-17</t>
   </si>
   <si>
     <t>22.9</t>
@@ -508,7 +508,7 @@
     <t>27.2</t>
   </si>
   <si>
-    <t>2016-06-10 18:00:00</t>
+    <t>2016-06-10-18</t>
   </si>
   <si>
     <t>21.3</t>
@@ -523,7 +523,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-10 19:00:00</t>
+    <t>2016-06-10-19</t>
   </si>
   <si>
     <t>20.9</t>
@@ -532,7 +532,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2016-06-10 20:00:00</t>
+    <t>2016-06-10-20</t>
   </si>
   <si>
     <t>6.8</t>
@@ -541,7 +541,7 @@
     <t>24.6</t>
   </si>
   <si>
-    <t>2016-06-10 21:00:00</t>
+    <t>2016-06-10-21</t>
   </si>
   <si>
     <t>13.7</t>
@@ -550,13 +550,13 @@
     <t>24.5</t>
   </si>
   <si>
-    <t>2016-06-10 22:00:00</t>
+    <t>2016-06-10-22</t>
   </si>
   <si>
     <t>20.2</t>
   </si>
   <si>
-    <t>2016-06-10 23:00:00</t>
+    <t>2016-06-10-23</t>
   </si>
   <si>
     <t>20.6</t>
